--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752810.4229293212</v>
+        <v>684376.5094811314</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>241.0142888776591</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V3" t="n">
-        <v>147.2379120664689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -864,22 +864,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>44.30348359856715</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>27.04480429817993</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>82.4611976390934</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>26.20075604774369</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>346.091498605625</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>130.1024780662198</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,28 +1530,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>70.80276983270117</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3197306044667</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.718781245622209</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>343.2761679892517</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>85.87170836083672</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>102.638629916822</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481168</v>
+        <v>16.1010098121322</v>
       </c>
       <c r="S17" t="n">
-        <v>160.5713327074073</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>60.38235645081242</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>22.28704139029333</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>150.824233262766</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481168</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>8.892594560365005</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229386</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>274.4246847141213</v>
+        <v>201.3302879382942</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2374,19 +2374,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>221.9411170368148</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229386</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>8.389005322401673</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>129.0246247964037</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="G26" t="n">
-        <v>188.0634385642069</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>62.9536956950552</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>13.86150268528785</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>136.0838294374592</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>179.3647014007962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>206.0978190620148</v>
       </c>
       <c r="T31" t="n">
-        <v>184.2720459863181</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>1.178315471687517</v>
       </c>
       <c r="F32" t="n">
-        <v>85.42957511242953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>102.5756487563988</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>20.68191823786721</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>70.80276983270106</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>196.4756515461382</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>212.3587352412626</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>10.2861508812424</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="W40" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>18.27382026581079</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>10.5295304479474</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>52.50084918926082</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>206.7721147628913</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.3028656524355</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V3" t="n">
-        <v>110.334904905842</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>110.334904905842</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>110.334904905842</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4512,19 +4512,19 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C5" t="n">
         <v>274.7999090013961</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
         <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481.7099827492369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C6" t="n">
-        <v>307.2569534681098</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D6" t="n">
-        <v>307.2569534681098</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>307.2569534681098</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>160.7223954949948</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>160.7223954949948</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>47.35325990257412</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y6" t="n">
-        <v>481.7099827492369</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.5428246748834</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>601.5428246748834</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>358.0940480307834</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729607</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4816,40 +4816,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953333</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748834</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748834</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748834</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748834</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748834</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>601.5428246748834</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.5428246748834</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>694.6722890434537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950733</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950733</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.0191193839557</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635217</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635217</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635217</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635217</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635217</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>554.3221432721093</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C11" t="n">
-        <v>185.3596263316976</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036446</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843237</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.527073573123</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X11" t="n">
-        <v>1331.061315312043</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="Y11" t="n">
-        <v>940.9219833362311</v>
+        <v>2113.174258592772</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036446</v>
@@ -5132,13 +5132,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C13" t="n">
-        <v>550.5654064942403</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D13" t="n">
-        <v>550.5654064942403</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E13" t="n">
-        <v>550.5654064942403</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F13" t="n">
-        <v>550.5654064942403</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036446</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>940.4137200851867</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C14" t="n">
-        <v>571.451203144775</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D14" t="n">
-        <v>213.1855045380245</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E14" t="n">
-        <v>213.1855045380245</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F14" t="n">
         <v>207.4089578252748</v>
@@ -5275,16 +5275,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5296,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2090.6186503862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.15289212512</v>
+        <v>962.9713148298083</v>
       </c>
       <c r="Y14" t="n">
-        <v>1327.013560149308</v>
+        <v>962.9713148298083</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5363,37 +5363,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5402,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.7118141694738</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C16" t="n">
-        <v>351.9727148150933</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="D16" t="n">
-        <v>201.8560754027576</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>157.6183655747301</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>157.6183655747301</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W16" t="n">
-        <v>438.7118141694738</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X16" t="n">
-        <v>438.7118141694738</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.7118141694738</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1363.553390680693</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="C17" t="n">
-        <v>1363.553390680693</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.553390680693</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2680.885444743341</v>
       </c>
       <c r="S17" t="n">
-        <v>2479.927136187699</v>
+        <v>2680.885444743341</v>
       </c>
       <c r="T17" t="n">
-        <v>2479.927136187699</v>
+        <v>2680.885444743341</v>
       </c>
       <c r="U17" t="n">
-        <v>2479.927136187699</v>
+        <v>2680.885444743341</v>
       </c>
       <c r="V17" t="n">
-        <v>2479.927136187699</v>
+        <v>2680.885444743341</v>
       </c>
       <c r="W17" t="n">
-        <v>2127.158480917584</v>
+        <v>2328.116789473227</v>
       </c>
       <c r="X17" t="n">
-        <v>1753.692722656504</v>
+        <v>1954.651031212147</v>
       </c>
       <c r="Y17" t="n">
-        <v>1363.553390680693</v>
+        <v>1564.511699236335</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
         <v>309.190302261463</v>
@@ -5603,34 +5603,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.4549451025304</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C19" t="n">
-        <v>245.4549451025304</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D19" t="n">
-        <v>245.4549451025304</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E19" t="n">
-        <v>245.4549451025304</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="F19" t="n">
-        <v>245.4549451025304</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G19" t="n">
-        <v>76.45514484086277</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>245.4549451025304</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.4549451025304</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>799.1015098861748</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C20" t="n">
-        <v>799.1015098861748</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D20" t="n">
-        <v>799.1015098861748</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E20" t="n">
-        <v>799.1015098861748</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F20" t="n">
         <v>799.1015098861748</v>
@@ -5746,58 +5746,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2633.137982800873</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2302.075095457302</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>1949.306440187188</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X20" t="n">
-        <v>1575.840681926108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y20" t="n">
-        <v>1185.701349950297</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598715</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517454</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537798</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152627</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5928,34 +5928,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064346</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064346</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W22" t="n">
-        <v>450.9323329800494</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X22" t="n">
-        <v>222.9427820820321</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.9427820820321</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1004.183115213127</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C23" t="n">
-        <v>1004.183115213127</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D23" t="n">
-        <v>1004.183115213127</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E23" t="n">
-        <v>618.3948626148824</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304456</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2078.153989802623</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>1747.091102459053</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>1394.322447188938</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X23" t="n">
-        <v>1394.322447188938</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y23" t="n">
-        <v>1004.183115213127</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036447</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036447</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036447</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,7 +6156,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
         <v>529.6040388502502</v>
@@ -6165,34 +6165,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036447</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1684.117239186543</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>1315.154722246131</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>956.8890236393806</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E26" t="n">
-        <v>571.1007710411363</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F26" t="n">
-        <v>571.1007710411363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6256,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2070.717079250664</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2070.717079250664</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>2070.717079250664</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
         <v>309.190302261463</v>
@@ -6326,28 +6326,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.9284171545819</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C28" t="n">
-        <v>235.9284171545819</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D28" t="n">
-        <v>235.9284171545819</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="E28" t="n">
-        <v>235.9284171545819</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="F28" t="n">
-        <v>235.9284171545819</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="G28" t="n">
-        <v>235.9284171545819</v>
+        <v>117.5325734315313</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>117.5325734315313</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6405,31 +6405,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>684.7105471961293</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>684.7105471961293</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T28" t="n">
-        <v>684.7105471961293</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U28" t="n">
-        <v>684.7105471961293</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V28" t="n">
-        <v>684.7105471961293</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W28" t="n">
-        <v>684.7105471961293</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X28" t="n">
-        <v>456.720996298112</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.9284171545819</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>840.8693068625894</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C29" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D29" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E29" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
@@ -6493,22 +6493,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2109.849833261758</v>
       </c>
       <c r="V29" t="n">
-        <v>2134.880026519315</v>
+        <v>1778.786945918187</v>
       </c>
       <c r="W29" t="n">
-        <v>1782.111371249201</v>
+        <v>1778.786945918187</v>
       </c>
       <c r="X29" t="n">
-        <v>1408.645612988121</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="Y29" t="n">
-        <v>1227.469146926711</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>541.9956044222747</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C31" t="n">
-        <v>373.0594214943678</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D31" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
         <v>222.942782082032</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="T31" t="n">
-        <v>541.9956044222747</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="U31" t="n">
-        <v>541.9956044222747</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="V31" t="n">
-        <v>541.9956044222747</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="W31" t="n">
-        <v>541.9956044222747</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="X31" t="n">
-        <v>541.9956044222747</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y31" t="n">
-        <v>541.9956044222747</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1253.251950079336</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C32" t="n">
-        <v>884.2894331389243</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D32" t="n">
-        <v>526.0237345321739</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="E32" t="n">
-        <v>140.2354819339296</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.851790143458</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.851790143458</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6779,16 +6779,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>325.6879402326646</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C34" t="n">
-        <v>156.7517573047577</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>624.5172177858293</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>624.5172177858293</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064344</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064344</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.3364050629043</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776798</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776798</v>
+        <v>1359.246564992226</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785536</v>
+        <v>973.4583123939813</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889461</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2317.040372100975</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>2317.040372100975</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D37" t="n">
-        <v>2317.040372100975</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E37" t="n">
-        <v>2317.040372100975</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F37" t="n">
-        <v>2317.040372100975</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G37" t="n">
-        <v>2317.040372100975</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2498.688836931215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2498.688836931215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2498.688836931215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2498.688836931215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2498.688836931215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2498.688836931215</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>777.3160057778002</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="C38" t="n">
-        <v>777.3160057778002</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="D38" t="n">
-        <v>777.3160057778002</v>
+        <v>595.641474755334</v>
       </c>
       <c r="E38" t="n">
-        <v>391.527753179556</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>391.527753179556</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
         <v>381.1377017843616</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W38" t="n">
-        <v>1540.921096014692</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X38" t="n">
-        <v>1167.455337753612</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y38" t="n">
-        <v>777.3160057778002</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7338,43 +7338,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W40" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
         <v>53.94298182036445</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1512.612574238668</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C41" t="n">
-        <v>1143.650057298256</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D41" t="n">
-        <v>785.3843586915057</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E41" t="n">
-        <v>399.5961060932614</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F41" t="n">
-        <v>399.5961060932614</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7444,19 +7444,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W41" t="n">
-        <v>2289.351746278601</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X41" t="n">
-        <v>2289.351746278601</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y41" t="n">
-        <v>1899.21241430279</v>
+        <v>1320.425425970681</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>675.0978234092011</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1529.2861479534</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C44" t="n">
-        <v>1160.323631012988</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D44" t="n">
-        <v>802.0579324062376</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E44" t="n">
-        <v>416.2696798079933</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F44" t="n">
-        <v>416.2696798079933</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
         <v>207.4089578252748</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278601</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017521</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y44" t="n">
-        <v>1915.885988017521</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7748,22 +7748,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>2153.290992466904</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519922</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270191</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270191</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747164</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>113.6687527430239</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V3" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>61.00025583355162</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>95.56758059204338</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>62.35182855323515</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>299.4691724331684</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>146.5077429405721</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>36.64234305785556</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>224.5805635544631</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>96.44405126592666</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.99007165458423</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>401.1572644960892</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>26.45493268921729</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>81.37511273779111</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>53.53225892497314</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23712,10 +23712,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>38.37739276267951</v>
       </c>
       <c r="S17" t="n">
-        <v>13.84438010156424</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23895,25 +23895,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.03869157211884</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>133.8838474515018</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491429</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23949,13 +23949,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>256.0518124789454</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>242.3315729479243</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491429</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
@@ -24183,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>12.09831362246973</v>
+        <v>85.19271039829675</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>29.2830504714745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>171.4429748595356</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801578</v>
@@ -24417,13 +24417,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.01048066168062</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="G26" t="n">
-        <v>225.7207314565881</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24496,7 +24496,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.01192609728304</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>132.80368929487</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>115.1403380708301</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>206.8732372552574</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>6.047719888004139</v>
       </c>
       <c r="T31" t="n">
-        <v>40.76305947176616</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>380.7520546005742</v>
       </c>
       <c r="F32" t="n">
-        <v>321.4464706292819</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>122.4594567016854</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>386.1941275038442</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>96.44405126592677</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>28.55945391194612</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>169.5716348309992</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>403.4980191395526</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="W40" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5103497549842</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>375.7084082081062</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>127.3311309926765</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,13 +25839,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>207.0120552579037</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>34.31260736577686</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457001.3944062361</v>
+        <v>457001.3944062362</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.5380250658</v>
       </c>
       <c r="C2" t="n">
         <v>132928.5380250659</v>
@@ -26325,19 +26325,19 @@
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
@@ -26346,7 +26346,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
         <v>231322.0880126061</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="G4" t="n">
         <v>9371.018034361483</v>
@@ -26444,22 +26444,22 @@
         <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="P4" t="n">
         <v>9371.018034361485</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
@@ -26502,7 +26502,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4669.273339585918</v>
+        <v>-16887.28395962641</v>
       </c>
       <c r="C6" t="n">
-        <v>76100.15819196188</v>
+        <v>63882.14757192138</v>
       </c>
       <c r="D6" t="n">
-        <v>76100.15819196188</v>
+        <v>63882.14757192141</v>
       </c>
       <c r="E6" t="n">
-        <v>-260126.582128161</v>
+        <v>-266194.9958739802</v>
       </c>
       <c r="F6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="G6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="H6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="I6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="J6" t="n">
-        <v>109659.6493157289</v>
+        <v>103591.2355699098</v>
       </c>
       <c r="K6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="L6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="M6" t="n">
-        <v>64746.23124077702</v>
+        <v>58677.8174949578</v>
       </c>
       <c r="N6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="O6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="P6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
     </row>
   </sheetData>
@@ -26749,16 +26749,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170867</v>
@@ -26767,13 +26767,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170866</v>
@@ -26795,25 +26795,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
@@ -26822,7 +26822,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768968</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,22 +32232,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
         <v>255.8615389119866</v>
@@ -32256,19 +32256,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32426,7 +32426,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
         <v>255.8615389119866</v>
@@ -32493,19 +32493,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479578</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32663,7 +32663,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32715,34 +32715,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,40 +32779,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
@@ -32821,7 +32821,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,25 +32882,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997385</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O9" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35500,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624598</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338903</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36530,10 +36530,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684376.5094811314</v>
+        <v>745211.9843928318</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554237</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8170070.113105669</v>
+        <v>8170070.11310567</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>51.87748497259537</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1141,14 +1141,14 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>190.3453970742847</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>82.69355372315674</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>346.091498605625</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>274.7455995532748</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.80276983270117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>68.25327490405893</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>294.8359431706712</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>343.2761679892517</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>6.406725926341394</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>102.638629916822</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>16.1010098121322</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>162.7187796765508</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>60.38235645081242</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>147.6979659320283</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>253.485824164021</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>150.824233262766</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>142.567753130208</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>201.3302879382942</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>251.6298792882201</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>295.9408816142891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.389005322401673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>25.25292425643923</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>321.7064610691122</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>293.9751085373551</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.9536956950552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>64.81656576729131</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>136.0838294374592</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>206.0978190620148</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.178315471687517</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>335.0711999026436</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>102.5756487563988</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>28.51033041214364</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>20.68191823786721</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3325,16 +3325,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>237.5575960687548</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>70.80276983270106</v>
+        <v>88.09847704188316</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2.467412544855906</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>212.3587352412626</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>9.693200015578107</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6993815150876</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>325.2399460717371</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.5295304479474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.50084918926082</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>350.8567465495059</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>295.9408816142891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.3028656524355</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,22 +4910,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>880.5283133660334</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
         <v>19.28114311021272</v>
@@ -4989,16 +4989,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1763.586886263858</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C11" t="n">
-        <v>1394.624369323446</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D11" t="n">
         <v>1036.358670716696</v>
@@ -5038,55 +5038,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V11" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W11" t="n">
-        <v>2113.174258592772</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X11" t="n">
-        <v>2113.174258592772</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y11" t="n">
-        <v>2113.174258592772</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C13" t="n">
-        <v>656.6110348804735</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D13" t="n">
-        <v>506.4943954681378</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E13" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064343</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>576.3714747656866</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C14" t="n">
-        <v>207.4089578252748</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D14" t="n">
-        <v>207.4089578252748</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E14" t="n">
-        <v>207.4089578252748</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X14" t="n">
-        <v>962.9713148298083</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.9713148298083</v>
+        <v>1893.689751284805</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5375,7 +5375,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>473.4444960005474</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="C16" t="n">
-        <v>304.5083130726405</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D16" t="n">
-        <v>304.5083130726405</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E16" t="n">
-        <v>304.5083130726405</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F16" t="n">
-        <v>157.6183655747301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G16" t="n">
-        <v>157.6183655747301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5469,19 +5469,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W16" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X16" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y16" t="n">
-        <v>473.4444960005474</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1177.911859172214</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.911859172214</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.911859172214</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1236065739693</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2680.885444743341</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2680.885444743341</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2680.885444743341</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2680.885444743341</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V17" t="n">
-        <v>2680.885444743341</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>2328.116789473227</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X17" t="n">
-        <v>1954.651031212147</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="Y17" t="n">
-        <v>1564.511699236335</v>
+        <v>1321.530002831497</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5621,16 +5621,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C19" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D19" t="n">
-        <v>578.0123447940985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>578.0123447940985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5712,13 +5712,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>578.9391196286279</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1309.714918859356</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C20" t="n">
-        <v>1309.714918859356</v>
+        <v>1524.727234344394</v>
       </c>
       <c r="D20" t="n">
-        <v>951.4492202526051</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>951.4492202526051</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X20" t="n">
-        <v>1309.714918859356</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y20" t="n">
-        <v>1309.714918859356</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W22" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X22" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C23" t="n">
-        <v>1662.48357412947</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1662.48357412947</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6019,22 +6019,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W23" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X23" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y23" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.8626623130036</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C25" t="n">
-        <v>498.8626623130036</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="D26" t="n">
-        <v>764.6872557005402</v>
+        <v>350.887535898501</v>
       </c>
       <c r="E26" t="n">
-        <v>378.8990031022959</v>
+        <v>350.887535898501</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>350.887535898501</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6226,7 +6226,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6256,22 +6256,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>117.5325734315313</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>117.5325734315313</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>286.5323736931989</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U28" t="n">
-        <v>286.5323736931989</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1405.321187657107</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C29" t="n">
-        <v>1036.358670716696</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D29" t="n">
-        <v>1036.358670716696</v>
+        <v>857.5948851267888</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6475,40 +6475,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2109.849833261758</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>1778.786945918187</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W29" t="n">
-        <v>1778.786945918187</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X29" t="n">
-        <v>1405.321187657107</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y29" t="n">
-        <v>1405.321187657107</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6563,22 +6563,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>519.9493689922781</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C31" t="n">
-        <v>519.9493689922781</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D31" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E31" t="n">
         <v>369.8327295799424</v>
@@ -6612,61 +6612,61 @@
         <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>519.9493689922781</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="W31" t="n">
-        <v>519.9493689922781</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="X31" t="n">
-        <v>519.9493689922781</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="Y31" t="n">
-        <v>519.9493689922781</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1364.743608328862</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C32" t="n">
-        <v>1364.743608328862</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D32" t="n">
-        <v>1364.743608328862</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
@@ -6700,10 +6700,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6712,7 +6712,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328862</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X32" t="n">
-        <v>1364.743608328862</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y32" t="n">
-        <v>1364.743608328862</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="33">
@@ -6761,10 +6761,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
@@ -6773,7 +6773,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6782,22 +6782,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369.8327295799424</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C34" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D34" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>624.5172177858293</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>624.5172177858293</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>369.8327295799424</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W34" t="n">
-        <v>369.8327295799424</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X34" t="n">
-        <v>369.8327295799424</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y34" t="n">
-        <v>369.8327295799424</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1717.512263598976</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C35" t="n">
-        <v>1717.512263598976</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D35" t="n">
-        <v>1359.246564992226</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E35" t="n">
-        <v>973.4583123939813</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W35" t="n">
-        <v>1717.512263598976</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X35" t="n">
-        <v>1717.512263598976</v>
+        <v>1620.080703211961</v>
       </c>
       <c r="Y35" t="n">
-        <v>1717.512263598976</v>
+        <v>1380.123535465744</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>293.047981881067</v>
       </c>
       <c r="C37" t="n">
-        <v>656.6110348804735</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D37" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>293.047981881067</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9071733620844</v>
+        <v>885.3850306156801</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9071733620844</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D38" t="n">
-        <v>595.641474755334</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>1717.512263598976</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W38" t="n">
-        <v>1717.512263598976</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X38" t="n">
-        <v>1344.046505337896</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9071733620844</v>
+        <v>1271.984870679802</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U40" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V40" t="n">
-        <v>281.9325327183818</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.425425970681</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C41" t="n">
-        <v>951.4629090302697</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D41" t="n">
-        <v>593.1972104235191</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="E41" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,10 +7414,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7441,22 +7441,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.527073573122</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X41" t="n">
-        <v>1331.061315312042</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y41" t="n">
-        <v>1320.425425970681</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7493,40 +7493,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>675.0978234092011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="C44" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="D44" t="n">
-        <v>1363.553390680693</v>
+        <v>972.7956167052923</v>
       </c>
       <c r="E44" t="n">
-        <v>1363.553390680693</v>
+        <v>972.7956167052923</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>561.8097119156848</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W44" t="n">
-        <v>1363.553390680693</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X44" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312043</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2508595994748</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>182.6195704309962</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>242.2195147380239</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>95.56758059204338</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>224.9573404408503</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23150,16 +23150,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>88.98961738068108</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.64234305785556</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>94.98550112519422</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>96.44405126592666</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>157.4563804849782</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>87.89789849280942</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>26.45493268921729</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>160.8400951722865</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>53.53225892497314</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23709,10 +23709,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>38.37739276267951</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>207.0123210019183</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>85.03869157211884</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>138.8250324045627</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>101.1972174566619</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>256.0518124789454</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>3.866209516361209</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>85.19271039829675</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>113.6430124827874</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>85.98948845797264</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.4429748595356</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>120.168123766492</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>85.16958467259929</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>119.8090614834398</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24496,19 +24496,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>72.01192609728304</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>317.1138043049705</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1403380708301</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>6.047719888004139</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24897,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>223.6902940721076</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>380.7520546005742</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>51.16673875340996</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>122.4594567016854</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>223.6273129116844</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>386.1941275038442</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>148.6803425872988</v>
       </c>
     </row>
     <row r="36">
@@ -25314,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>96.44405126592677</v>
+        <v>79.14834405674468</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>362.8054792261516</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>169.5716348309992</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>170.1387801663592</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>35.43826180874041</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>56.69042400052467</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>375.7084082081062</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>127.3311309926765</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>62.9274234712891</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>53.30008710312387</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>34.31260736577686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778471</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778477</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250658</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
         <v>132928.5380250659</v>
@@ -26325,7 +26325,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.088012606</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26337,25 +26337,25 @@
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
         <v>9371.018034361483</v>
@@ -26456,10 +26456,10 @@
         <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="P4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9371.018034361485</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26496,22 +26496,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16887.28395962641</v>
+        <v>-5891.074401589905</v>
       </c>
       <c r="C6" t="n">
-        <v>63882.14757192138</v>
+        <v>74878.35712995783</v>
       </c>
       <c r="D6" t="n">
-        <v>63882.14757192141</v>
+        <v>74878.35712995783</v>
       </c>
       <c r="E6" t="n">
-        <v>-266194.9958739802</v>
+        <v>-260733.4235027427</v>
       </c>
       <c r="F6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="G6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="H6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="I6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="J6" t="n">
-        <v>103591.2355699098</v>
+        <v>109052.807941147</v>
       </c>
       <c r="K6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="L6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402534</v>
       </c>
       <c r="M6" t="n">
-        <v>58677.8174949578</v>
+        <v>64139.38986619511</v>
       </c>
       <c r="N6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="O6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="P6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402533</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="I3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="J3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="K3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="L3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="L3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="M3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="N3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="O3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26816,22 +26816,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35497,19 +35497,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>130.3926104730631</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
